--- a/7.33e/calc2.xlsx
+++ b/7.33e/calc2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12390"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,18 +247,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="[=1]g;General"/>
-    <numFmt numFmtId="178" formatCode="[=0]g;General"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="[=1]g;General"/>
+    <numFmt numFmtId="179" formatCode="[=0]g;General"/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1061,7 +1060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,19 +1151,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,36 +1172,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1227,13 +1226,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1245,13 +1244,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1263,10 +1262,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1278,7 +1277,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,7 +1286,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1302,12 +1301,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1326,12 +1325,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1344,18 +1337,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1365,13 +1346,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1386,10 +1361,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1398,37 +1373,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1440,25 +1412,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1831,8 +1806,8 @@
   <sheetPr/>
   <dimension ref="B1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2076,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="43">
-        <f t="shared" si="0"/>
+        <f>C14*D14+E14</f>
         <v>1.275</v>
       </c>
       <c r="G14" s="44">
@@ -2197,7 +2172,7 @@
       <c r="H19" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="127">
+      <c r="I19" s="119">
         <f>F19*29+F18</f>
         <v>109.625</v>
       </c>
@@ -2205,7 +2180,7 @@
         <f t="shared" ref="J19:J23" si="2">C19*29+C18</f>
         <v>87.7</v>
       </c>
-      <c r="K19" s="128">
+      <c r="K19" s="120">
         <f>I19-J19</f>
         <v>21.925</v>
       </c>
@@ -2232,7 +2207,7 @@
         <v>4.75</v>
       </c>
       <c r="J20" s="35"/>
-      <c r="K20" s="129"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" customHeight="1" spans="2:11">
       <c r="B21" s="59" t="s">
@@ -2258,7 +2233,7 @@
       <c r="H21" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="130">
+      <c r="I21" s="122">
         <f>F21*29+F20</f>
         <v>103.5</v>
       </c>
@@ -2266,7 +2241,7 @@
         <f t="shared" si="2"/>
         <v>82.8</v>
       </c>
-      <c r="K21" s="128">
+      <c r="K21" s="120">
         <f t="shared" ref="K19:K23" si="3">I21-J21</f>
         <v>20.7</v>
       </c>
@@ -2293,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="35"/>
-      <c r="K22" s="129"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" customHeight="1" spans="2:11">
       <c r="B23" s="65" t="s">
@@ -2319,7 +2294,7 @@
       <c r="H23" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="131">
+      <c r="I23" s="123">
         <f>F23*29+F22</f>
         <v>113.375</v>
       </c>
@@ -2327,7 +2302,7 @@
         <f t="shared" si="2"/>
         <v>90.7</v>
       </c>
-      <c r="K23" s="128">
+      <c r="K23" s="120">
         <f t="shared" si="3"/>
         <v>22.675</v>
       </c>
@@ -2378,15 +2353,15 @@
       <c r="H25" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="132">
+      <c r="I25" s="124">
         <f>0.03*3.14/F25</f>
         <v>0.107657142857143</v>
       </c>
-      <c r="J25" s="133" t="s">
+      <c r="J25" s="125" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="76"/>
-      <c r="L25" s="133" t="s">
+      <c r="L25" s="125" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2411,12 +2386,12 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="I26" s="134"/>
-      <c r="J26" s="135" t="s">
+      <c r="I26" s="126"/>
+      <c r="J26" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135" t="s">
+      <c r="K26" s="127"/>
+      <c r="L26" s="127" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2441,18 +2416,18 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J27" s="135" t="s">
+      <c r="J27" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135" t="s">
+      <c r="K27" s="127"/>
+      <c r="L27" s="127" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="10:12">
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
     </row>
     <row r="29" customHeight="1" spans="2:6">
       <c r="B29" s="83" t="s">
@@ -2554,83 +2529,83 @@
     </row>
     <row r="34" customHeight="1" spans="2:6">
       <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89">
+      <c r="C34" s="24"/>
+      <c r="D34" s="87">
         <v>1.25</v>
       </c>
-      <c r="E34" s="89"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="25"/>
     </row>
     <row r="35" customHeight="1" spans="2:6">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="91">
+      <c r="C35" s="89">
         <v>0.15</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="90">
         <f>C35*D34</f>
         <v>0.1875</v>
       </c>
-      <c r="E35" s="93"/>
+      <c r="E35" s="91"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" customHeight="1" spans="2:6">
-      <c r="B36" s="94"/>
-      <c r="C36" s="95" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="3">
         <f>D37-C37</f>
         <v>-5</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="E36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="97">
+      <c r="F36" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:8">
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="99">
+      <c r="C37" s="93">
         <v>28</v>
       </c>
-      <c r="D37" s="99">
+      <c r="D37" s="93">
         <v>23</v>
       </c>
-      <c r="E37" s="99">
+      <c r="E37" s="93">
         <f>D37+$D$36</f>
         <v>18</v>
       </c>
-      <c r="F37" s="100">
+      <c r="F37" s="94">
         <f>E37+$D$36</f>
         <v>13</v>
       </c>
-      <c r="G37" s="101"/>
+      <c r="G37" s="95"/>
       <c r="H37" s="35"/>
     </row>
     <row r="38" customHeight="1" spans="2:10">
-      <c r="B38" s="102"/>
-      <c r="C38" s="88">
+      <c r="B38" s="86"/>
+      <c r="C38" s="24">
         <f>ROUNDDOWN(C37*$F$36,1)</f>
         <v>21</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="24">
         <f>ROUNDDOWN(D37*$F$36,1)</f>
         <v>17.2</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="24">
         <f>ROUNDDOWN(E37*$F$36,1)</f>
         <v>13.5</v>
       </c>
-      <c r="F38" s="103">
+      <c r="F38" s="25">
         <f>ROUNDDOWN(F37*$F$36,1)</f>
         <v>9.7</v>
       </c>
-      <c r="H38" s="104" t="str">
+      <c r="H38" s="96" t="str">
         <f>CONCATENATE(J38," ",F38)</f>
         <v>21 17.2 13.5 9.7</v>
       </c>
@@ -2640,7 +2615,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:6">
-      <c r="B39" s="102"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="35" t="s">
         <v>6</v>
       </c>
@@ -2648,10 +2623,10 @@
         <f>D40-C40</f>
         <v>5</v>
       </c>
-      <c r="E39" s="89" t="s">
+      <c r="E39" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="105">
+      <c r="F39" s="97">
         <v>0.75</v>
       </c>
     </row>
@@ -2669,7 +2644,7 @@
         <f>D40+$D$39</f>
         <v>125</v>
       </c>
-      <c r="F40" s="106">
+      <c r="F40" s="98">
         <f>E40+$D$39</f>
         <v>130</v>
       </c>
@@ -2677,20 +2652,20 @@
       <c r="I40" s="35"/>
     </row>
     <row r="41" customHeight="1" spans="2:10">
-      <c r="B41" s="107"/>
-      <c r="C41" s="108">
+      <c r="B41" s="99"/>
+      <c r="C41" s="100">
         <f>ROUNDDOWN(C40*$F$39,0)</f>
         <v>86</v>
       </c>
-      <c r="D41" s="108">
+      <c r="D41" s="100">
         <f>ROUNDDOWN(D40*$F$39,0)</f>
         <v>90</v>
       </c>
-      <c r="E41" s="108">
+      <c r="E41" s="100">
         <f>ROUNDDOWN(E40*$F$39,0)</f>
         <v>93</v>
       </c>
-      <c r="F41" s="109">
+      <c r="F41" s="101">
         <f>ROUNDDOWN(F40*$F$39,0)</f>
         <v>97</v>
       </c>
@@ -2718,10 +2693,10 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="111">
+      <c r="C44" s="103">
         <v>500</v>
       </c>
       <c r="D44" s="37">
@@ -2730,20 +2705,20 @@
       <c r="E44" s="38">
         <v>0</v>
       </c>
-      <c r="F44" s="112">
+      <c r="F44" s="104">
         <f>C44*D44+E44</f>
         <v>625</v>
       </c>
-      <c r="G44" s="113">
+      <c r="G44" s="105">
         <f>F44-C44</f>
         <v>125</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="115">
+      <c r="C45" s="107">
         <v>0.2</v>
       </c>
       <c r="D45" s="37">
@@ -2752,7 +2727,7 @@
       <c r="E45" s="38">
         <v>0</v>
       </c>
-      <c r="F45" s="116">
+      <c r="F45" s="108">
         <f>C45*D45+E45</f>
         <v>0.15</v>
       </c>
@@ -2762,10 +2737,10 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="88">
+      <c r="C46" s="24">
         <v>18</v>
       </c>
       <c r="D46" s="37">
@@ -2774,7 +2749,7 @@
       <c r="E46" s="38">
         <v>0</v>
       </c>
-      <c r="F46" s="100">
+      <c r="F46" s="94">
         <f>ROUNDDOWN(C46*D46+E46,1)</f>
         <v>13.5</v>
       </c>
@@ -2787,7 +2762,7 @@
       <c r="B47" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="88">
+      <c r="C47" s="24">
         <v>100</v>
       </c>
       <c r="D47" s="37">
@@ -2796,7 +2771,7 @@
       <c r="E47" s="38">
         <v>0</v>
       </c>
-      <c r="F47" s="106">
+      <c r="F47" s="98">
         <f>ROUNDDOWN(C47*D47+E47,0)</f>
         <v>75</v>
       </c>
@@ -2804,7 +2779,7 @@
         <f>F47-C40</f>
         <v>-40</v>
       </c>
-      <c r="H47" s="117"/>
+      <c r="H47" s="109"/>
     </row>
     <row r="48" customHeight="1" spans="2:7">
       <c r="B48" s="23" t="s">
@@ -2863,7 +2838,7 @@
       <c r="E50" s="38">
         <v>0</v>
       </c>
-      <c r="F50" s="118">
+      <c r="F50" s="110">
         <f t="shared" ref="F50:F57" si="4">C50*D50+E50</f>
         <v>1125</v>
       </c>
@@ -2885,20 +2860,20 @@
       <c r="E51" s="38">
         <v>0</v>
       </c>
-      <c r="F51" s="119">
+      <c r="F51" s="31">
         <f t="shared" si="4"/>
         <v>93.75</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="40">
         <f t="shared" si="5"/>
         <v>18.75</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="120">
+      <c r="C52" s="111">
         <v>23</v>
       </c>
       <c r="D52" s="37">
@@ -2907,7 +2882,7 @@
       <c r="E52" s="38">
         <v>0</v>
       </c>
-      <c r="F52" s="121">
+      <c r="F52" s="112">
         <f t="shared" si="4"/>
         <v>28.75</v>
       </c>
@@ -2917,17 +2892,17 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:7">
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="99">
+      <c r="C53" s="93">
         <v>170</v>
       </c>
       <c r="D53" s="37">
         <v>1.25</v>
       </c>
       <c r="E53" s="38"/>
-      <c r="F53" s="122">
+      <c r="F53" s="113">
         <f t="shared" si="4"/>
         <v>212.5</v>
       </c>
@@ -2940,7 +2915,7 @@
       <c r="B54" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="123">
+      <c r="C54" s="114">
         <v>2</v>
       </c>
       <c r="D54" s="37">
@@ -2949,7 +2924,7 @@
       <c r="E54" s="38">
         <v>0</v>
       </c>
-      <c r="F54" s="106">
+      <c r="F54" s="98">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
@@ -2959,10 +2934,10 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:7">
-      <c r="B55" s="124" t="s">
+      <c r="B55" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="125">
+      <c r="C55" s="116">
         <v>1.25</v>
       </c>
       <c r="D55" s="37">
@@ -2971,11 +2946,11 @@
       <c r="E55" s="38">
         <v>0</v>
       </c>
-      <c r="F55" s="126">
+      <c r="F55" s="117">
         <f t="shared" si="4"/>
         <v>0.9375</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="46">
         <f t="shared" si="5"/>
         <v>-0.3125</v>
       </c>
@@ -3015,11 +2990,11 @@
       <c r="E57" s="81">
         <v>0</v>
       </c>
-      <c r="F57" s="82">
+      <c r="F57" s="118">
         <f t="shared" si="4"/>
         <v>4.175</v>
       </c>
-      <c r="G57" s="35">
+      <c r="G57" s="46">
         <f t="shared" si="5"/>
         <v>0.835</v>
       </c>
@@ -3034,7 +3009,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8513c183-f7e7-4b66-8458-f06a9b195892}</x14:id>
+          <x14:id>{212be5d5-0a9b-4795-a997-d28619f2ff5a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3046,7 +3021,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81a6f043-bd79-4807-b301-90aac1cf807f}</x14:id>
+          <x14:id>{174892df-adb7-4758-ad61-f8dbd3591a6c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3058,7 +3033,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c765a6b-1cc6-411f-aebd-3be782c12cf8}</x14:id>
+          <x14:id>{513ceda7-109a-47da-9dd7-2a3fb1e5fc65}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3072,7 +3047,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e7f92e0-382a-4869-a205-3641bc62afa4}</x14:id>
+          <x14:id>{1a8be358-4e5a-4062-82c0-83353b069a0f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3086,7 +3061,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5d1f46ef-c758-47cb-a639-aa651afa89ab}</x14:id>
+          <x14:id>{996d72f5-f7a9-4fd9-a5fa-3cdde9931bb8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3098,7 +3073,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eba781b4-faab-4435-869b-e513b6b2ffe9}</x14:id>
+          <x14:id>{a2314410-0a38-421a-ab5b-51a84bfae09f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3112,7 +3087,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9e0ad899-8679-4529-8c55-73509a2f174c}</x14:id>
+          <x14:id>{bf3e1fa9-fe31-4d84-9ad4-826c24a5654c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3128,7 +3103,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8513c183-f7e7-4b66-8458-f06a9b195892}">
+          <x14:cfRule type="dataBar" id="{212be5d5-0a9b-4795-a997-d28619f2ff5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3136,7 +3111,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{81a6f043-bd79-4807-b301-90aac1cf807f}">
+          <x14:cfRule type="dataBar" id="{174892df-adb7-4758-ad61-f8dbd3591a6c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3144,7 +3119,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5c765a6b-1cc6-411f-aebd-3be782c12cf8}">
+          <x14:cfRule type="dataBar" id="{513ceda7-109a-47da-9dd7-2a3fb1e5fc65}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3155,7 +3130,7 @@
           <xm:sqref>C30:G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2e7f92e0-382a-4869-a205-3641bc62afa4}">
+          <x14:cfRule type="dataBar" id="{1a8be358-4e5a-4062-82c0-83353b069a0f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3166,7 +3141,7 @@
           <xm:sqref>C30:F30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5d1f46ef-c758-47cb-a639-aa651afa89ab}">
+          <x14:cfRule type="dataBar" id="{996d72f5-f7a9-4fd9-a5fa-3cdde9931bb8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3174,7 +3149,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{eba781b4-faab-4435-869b-e513b6b2ffe9}">
+          <x14:cfRule type="dataBar" id="{a2314410-0a38-421a-ab5b-51a84bfae09f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3185,7 +3160,7 @@
           <xm:sqref>C31:G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9e0ad899-8679-4529-8c55-73509a2f174c}">
+          <x14:cfRule type="dataBar" id="{bf3e1fa9-fe31-4d84-9ad4-826c24a5654c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3730,7 +3705,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ebc8cb6e-7118-4725-afef-014d0abb2a3b}</x14:id>
+          <x14:id>{abea4760-c9a9-405f-80b8-0d50c57bd7e2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3744,7 +3719,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{efee724e-7796-46f0-bbb3-6a0b8e0975ba}</x14:id>
+          <x14:id>{c0cd58f6-3b69-4fa9-bcd6-64ce54a24136}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3758,7 +3733,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40b465ad-b25e-49b0-a260-a4ce9a604183}</x14:id>
+          <x14:id>{615cd1ed-5a6d-4f7a-85a2-199372e40340}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3772,7 +3747,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{994016bc-a4f9-4046-b60f-5a22cfe24168}</x14:id>
+          <x14:id>{222b34a3-ccef-4095-bdbb-997d0c938eec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3786,7 +3761,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0427e94e-f168-4f7b-8bac-7921da369033}</x14:id>
+          <x14:id>{e5ac284d-0815-43f0-8ce5-797e42840c13}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3800,7 +3775,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{678a8ffa-e9b8-43ee-9dd7-369919fe3dbb}</x14:id>
+          <x14:id>{d9709872-6a4e-40b7-954c-0bcb46e49aaf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3814,7 +3789,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d2ab62ca-8dce-4f6b-88f8-840fbdbc66e6}</x14:id>
+          <x14:id>{aa80e03d-5fd6-455f-8b09-280fd8781830}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3828,7 +3803,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e4fcb01-468b-4bee-a6dc-2f36eed675d1}</x14:id>
+          <x14:id>{eb889fe5-7bca-4e01-aaef-10e89b9d66c5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3842,7 +3817,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5743c809-d780-47b1-a37a-f43901615cd2}</x14:id>
+          <x14:id>{93a363df-11c3-43a3-a5f2-b2cf671252f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3854,7 +3829,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ebc8cb6e-7118-4725-afef-014d0abb2a3b}">
+          <x14:cfRule type="dataBar" id="{abea4760-c9a9-405f-80b8-0d50c57bd7e2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3865,7 +3840,7 @@
           <xm:sqref>D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{efee724e-7796-46f0-bbb3-6a0b8e0975ba}">
+          <x14:cfRule type="dataBar" id="{c0cd58f6-3b69-4fa9-bcd6-64ce54a24136}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3876,7 +3851,7 @@
           <xm:sqref>D20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40b465ad-b25e-49b0-a260-a4ce9a604183}">
+          <x14:cfRule type="dataBar" id="{615cd1ed-5a6d-4f7a-85a2-199372e40340}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3887,7 +3862,7 @@
           <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{994016bc-a4f9-4046-b60f-5a22cfe24168}">
+          <x14:cfRule type="dataBar" id="{222b34a3-ccef-4095-bdbb-997d0c938eec}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3898,7 +3873,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0427e94e-f168-4f7b-8bac-7921da369033}">
+          <x14:cfRule type="dataBar" id="{e5ac284d-0815-43f0-8ce5-797e42840c13}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3909,7 +3884,7 @@
           <xm:sqref>B3:B22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{678a8ffa-e9b8-43ee-9dd7-369919fe3dbb}">
+          <x14:cfRule type="dataBar" id="{d9709872-6a4e-40b7-954c-0bcb46e49aaf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3920,7 +3895,7 @@
           <xm:sqref>C3:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d2ab62ca-8dce-4f6b-88f8-840fbdbc66e6}">
+          <x14:cfRule type="dataBar" id="{aa80e03d-5fd6-455f-8b09-280fd8781830}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3931,7 +3906,7 @@
           <xm:sqref>D3:D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6e4fcb01-468b-4bee-a6dc-2f36eed675d1}">
+          <x14:cfRule type="dataBar" id="{eb889fe5-7bca-4e01-aaef-10e89b9d66c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3942,7 +3917,7 @@
           <xm:sqref>F3:F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5743c809-d780-47b1-a37a-f43901615cd2}">
+          <x14:cfRule type="dataBar" id="{93a363df-11c3-43a3-a5f2-b2cf671252f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/7.33e/calc2.xlsx
+++ b/7.33e/calc2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Units</t>
   </si>
@@ -180,7 +180,10 @@
     <t>value1  伤害</t>
   </si>
   <si>
-    <t>value2  强化</t>
+    <t>value2%1  强化</t>
+  </si>
+  <si>
+    <t>value2%0  强化</t>
   </si>
   <si>
     <t>value3  天赋</t>
@@ -252,11 +255,11 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="[=1]g;General"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="[=1]g;General"/>
-    <numFmt numFmtId="179" formatCode="[=0]g;General"/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="[=0]g;General"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="39">
@@ -1060,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,12 +1175,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1190,25 +1193,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1217,7 +1220,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,10 +1232,10 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1247,10 +1250,10 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,10 +1265,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1286,7 +1289,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1301,12 +1304,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1316,9 +1319,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1346,7 +1358,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1382,18 +1394,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1412,19 +1421,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1804,10 +1810,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:L57"/>
+  <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1894,10 +1900,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="28">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="28">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29"/>
@@ -1908,23 +1914,23 @@
       </c>
       <c r="C7" s="30">
         <f>C3*$D$6</f>
-        <v>138</v>
+        <v>172.5</v>
       </c>
       <c r="D7" s="30">
         <f>D3*$D$6</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E7" s="30">
         <f>E3*$D$6</f>
-        <v>114</v>
+        <v>142.5</v>
       </c>
       <c r="F7" s="30">
         <f>F3*$D$6</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G7" s="31">
         <f>G3*$D$6</f>
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:7">
@@ -1933,23 +1939,23 @@
       </c>
       <c r="C8" s="30">
         <f>C4*$E$6</f>
-        <v>86</v>
+        <v>107.5</v>
       </c>
       <c r="D8" s="30">
         <f>D4*$E$6</f>
-        <v>38</v>
+        <v>47.5</v>
       </c>
       <c r="E8" s="30">
         <f>E4*$E$6</f>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F8" s="30">
         <f>F4*$E$6</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8" s="31">
         <f>G4*$E$6</f>
-        <v>118</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">
@@ -1958,23 +1964,23 @@
       </c>
       <c r="C9" s="33">
         <f>C5*$E$6</f>
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="D9" s="33">
         <f>D5*$E$6</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="E9" s="33">
         <f>E5*$E$6</f>
-        <v>78</v>
+        <v>97.5</v>
       </c>
       <c r="F9" s="33">
         <f>F5*$E$6</f>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G9" s="34">
         <f>G5*$E$6</f>
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:7">
@@ -1998,7 +2004,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="37">
         <v>1.25</v>
@@ -2008,11 +2014,11 @@
       </c>
       <c r="F12" s="39">
         <f>C12*D12+E12</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" s="40">
         <f>F12-C12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:7">
@@ -2020,7 +2026,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="36">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" s="37">
         <v>1.25</v>
@@ -2030,11 +2036,11 @@
       </c>
       <c r="F13" s="39">
         <f t="shared" ref="F13:F27" si="0">C13*D13+E13</f>
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="G13" s="40">
         <f>F13-C13</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
@@ -2051,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="43">
-        <f>C14*D14+E14</f>
+        <f t="shared" si="0"/>
         <v>1.275</v>
       </c>
       <c r="G14" s="44">
@@ -2064,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="42">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="D15" s="37">
         <v>0.75</v>
@@ -2074,11 +2080,11 @@
       </c>
       <c r="F15" s="45">
         <f t="shared" si="0"/>
-        <v>0.2625</v>
+        <v>0.2475</v>
       </c>
       <c r="G15" s="46">
         <f>F15-C15</f>
-        <v>-0.0875</v>
+        <v>-0.0825</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:7">
@@ -2086,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="48">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D16" s="37">
         <v>1.25</v>
@@ -2096,11 +2102,11 @@
       </c>
       <c r="F16" s="49">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="G16" s="35">
+        <v>187.5</v>
+      </c>
+      <c r="G16" s="40">
         <f>F16-C16</f>
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
@@ -2120,7 +2126,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="40">
         <f t="shared" ref="G17:G27" si="1">F17-C17</f>
         <v>0</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="54">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="37">
         <v>1.25</v>
@@ -2140,11 +2146,11 @@
       </c>
       <c r="F18" s="55">
         <f t="shared" si="0"/>
-        <v>26.25</v>
+        <v>23.75</v>
       </c>
       <c r="G18" s="40">
         <f t="shared" si="1"/>
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J18" s="35"/>
     </row>
@@ -2153,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="56">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D19" s="37">
         <v>1.25</v>
@@ -2163,26 +2169,26 @@
       </c>
       <c r="F19" s="57">
         <f t="shared" si="0"/>
-        <v>2.875</v>
+        <v>3.125</v>
       </c>
       <c r="G19" s="44">
         <f t="shared" si="1"/>
-        <v>0.575</v>
+        <v>0.625</v>
       </c>
       <c r="H19" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I19" s="121">
         <f>F19*29+F18</f>
-        <v>109.625</v>
+        <v>114.375</v>
       </c>
       <c r="J19" s="40">
         <f t="shared" ref="J19:J23" si="2">C19*29+C18</f>
-        <v>87.7</v>
-      </c>
-      <c r="K19" s="120">
+        <v>91.5</v>
+      </c>
+      <c r="K19" s="122">
         <f>I19-J19</f>
-        <v>21.925</v>
+        <v>22.875</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:11">
@@ -2190,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" s="37">
         <v>1.25</v>
@@ -2200,21 +2206,21 @@
       </c>
       <c r="F20" s="61">
         <f t="shared" si="0"/>
-        <v>23.75</v>
+        <v>20</v>
       </c>
       <c r="G20" s="40">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J20" s="35"/>
-      <c r="K20" s="121"/>
+      <c r="K20" s="88"/>
     </row>
     <row r="21" customHeight="1" spans="2:11">
       <c r="B21" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="62">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D21" s="37">
         <v>1.25</v>
@@ -2224,26 +2230,26 @@
       </c>
       <c r="F21" s="63">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="G21" s="44">
         <f t="shared" si="1"/>
-        <v>0.55</v>
+        <v>0.475</v>
       </c>
       <c r="H21" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="122">
+      <c r="I21" s="123">
         <f>F21*29+F20</f>
-        <v>103.5</v>
+        <v>88.875</v>
       </c>
       <c r="J21" s="40">
         <f t="shared" si="2"/>
-        <v>82.8</v>
-      </c>
-      <c r="K21" s="120">
+        <v>71.1</v>
+      </c>
+      <c r="K21" s="122">
         <f t="shared" ref="K19:K23" si="3">I21-J21</f>
-        <v>20.7</v>
+        <v>17.775</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:11">
@@ -2251,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="66">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D22" s="37">
         <v>1.25</v>
@@ -2261,21 +2267,21 @@
       </c>
       <c r="F22" s="31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="G22" s="40">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J22" s="35"/>
-      <c r="K22" s="121"/>
+      <c r="K22" s="88"/>
     </row>
     <row r="23" customHeight="1" spans="2:11">
       <c r="B23" s="65" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="67">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D23" s="37">
         <v>1.25</v>
@@ -2285,26 +2291,26 @@
       </c>
       <c r="F23" s="68">
         <f t="shared" si="0"/>
-        <v>2.875</v>
+        <v>3.125</v>
       </c>
       <c r="G23" s="44">
         <f t="shared" si="1"/>
-        <v>0.575</v>
+        <v>0.625</v>
       </c>
       <c r="H23" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="123">
+      <c r="I23" s="124">
         <f>F23*29+F22</f>
-        <v>113.375</v>
+        <v>113.125</v>
       </c>
       <c r="J23" s="40">
         <f t="shared" si="2"/>
-        <v>90.7</v>
-      </c>
-      <c r="K23" s="120">
+        <v>90.5</v>
+      </c>
+      <c r="K23" s="122">
         <f t="shared" si="3"/>
-        <v>22.675</v>
+        <v>22.625</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:7">
@@ -2312,7 +2318,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="71">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D24" s="37">
         <v>1.25</v>
@@ -2322,11 +2328,11 @@
       </c>
       <c r="F24" s="72">
         <f t="shared" si="0"/>
-        <v>362.5</v>
+        <v>368.75</v>
       </c>
       <c r="G24" s="40">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:12">
@@ -2334,7 +2340,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="74">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D25" s="37">
         <v>1.25</v>
@@ -2344,24 +2350,24 @@
       </c>
       <c r="F25" s="75">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="G25" s="44">
         <f t="shared" si="1"/>
-        <v>0.175</v>
+        <v>0.225</v>
       </c>
       <c r="H25" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="124">
+      <c r="I25" s="125">
         <f>0.03*3.14/F25</f>
-        <v>0.107657142857143</v>
-      </c>
-      <c r="J25" s="125" t="s">
+        <v>0.0837333333333333</v>
+      </c>
+      <c r="J25" s="126" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="76"/>
-      <c r="L25" s="125" t="s">
+      <c r="L25" s="126" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2386,12 +2392,12 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="I26" s="126"/>
-      <c r="J26" s="127" t="s">
+      <c r="I26" s="127"/>
+      <c r="J26" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127" t="s">
+      <c r="K26" s="128"/>
+      <c r="L26" s="128" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2416,18 +2422,18 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J27" s="127" t="s">
+      <c r="J27" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127" t="s">
+      <c r="K27" s="128"/>
+      <c r="L27" s="128" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="10:12">
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
     </row>
     <row r="29" customHeight="1" spans="2:6">
       <c r="B29" s="83" t="s">
@@ -2438,7 +2444,7 @@
       </c>
       <c r="D29" s="3">
         <f>D30-C30</f>
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>4</v>
@@ -2452,296 +2458,302 @@
         <v>35</v>
       </c>
       <c r="C30" s="36">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="D30" s="36">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E30" s="36">
         <f>D30+$D$29</f>
-        <v>70</v>
+        <v>1.2</v>
       </c>
       <c r="F30" s="84">
         <f>E30+$D$29</f>
-        <v>90</v>
+        <v>1.4</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="64"/>
       <c r="J30" s="35" t="str">
-        <f>CONCATENATE(C30," ",D30," ",E30)</f>
-        <v>30 50 70</v>
+        <f t="shared" ref="J30:J32" si="4">CONCATENATE(C30," ",D30," ",E30)</f>
+        <v>0.8 1 1.2</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:10">
       <c r="B31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="85">
+        <f>ROUNDDOWN(C30*$F$29,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="85">
+        <f>ROUNDDOWN(D30*$F$29,1)</f>
+        <v>1.2</v>
+      </c>
+      <c r="E31" s="85">
+        <f>ROUNDDOWN(E30*$F$29,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="86">
+        <f>ROUNDDOWN(F30*$F$29,1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="87" t="str">
+        <f>CONCATENATE(J31," ",F31)</f>
+        <v>1 1.2 1.5 1.7</v>
+      </c>
+      <c r="J31" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>1 1.2 1.5</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:10">
+      <c r="B32" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="36">
         <f>ROUNDDOWN(C30*$F$29,0)</f>
-        <v>37</v>
-      </c>
-      <c r="D31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36">
         <f>ROUNDDOWN(D30*$F$29,0)</f>
-        <v>62</v>
-      </c>
-      <c r="E31" s="36">
+        <v>1</v>
+      </c>
+      <c r="E32" s="36">
         <f>ROUNDDOWN(E30*$F$29,0)</f>
-        <v>87</v>
-      </c>
-      <c r="F31" s="36">
+        <v>1</v>
+      </c>
+      <c r="F32" s="84">
         <f>ROUNDDOWN(F30*$F$29,0)</f>
-        <v>112</v>
-      </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="85" t="str">
-        <f>CONCATENATE(J31," ",F31)</f>
-        <v>37 62 87 112</v>
-      </c>
-      <c r="J31" s="35" t="str">
-        <f>CONCATENATE(C31," ",D31," ",E31)</f>
-        <v>37 62 87</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:6">
-      <c r="B32" s="86"/>
-      <c r="C32" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="88"/>
+      <c r="H32" s="87" t="str">
+        <f>CONCATENATE(J32," ",F32)</f>
+        <v>1 1 1 1</v>
+      </c>
+      <c r="J32" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>1 1 1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:6">
+      <c r="B33" s="89"/>
+      <c r="C33" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D33" s="90">
         <v>2</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" customHeight="1" spans="2:6">
-      <c r="B33" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="66">
-        <v>475</v>
-      </c>
-      <c r="D33" s="66">
-        <f>C33*D32</f>
-        <v>950</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
     </row>
     <row r="34" customHeight="1" spans="2:6">
-      <c r="B34" s="86"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="87">
+      <c r="B34" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="66">
+        <v>16</v>
+      </c>
+      <c r="D34" s="66">
+        <f>C34*D33</f>
+        <v>32</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:6">
+      <c r="B35" s="89"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="90">
         <v>1.25</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" customHeight="1" spans="2:6">
-      <c r="B35" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="89">
-        <v>0.15</v>
-      </c>
-      <c r="D35" s="90">
-        <f>C35*D34</f>
-        <v>0.1875</v>
-      </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" customHeight="1" spans="2:6">
-      <c r="B36" s="20"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="92">
+        <v>0.17</v>
+      </c>
+      <c r="D36" s="93">
+        <f>C36*D35</f>
+        <v>0.2125</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:6">
+      <c r="B37" s="20"/>
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="3">
-        <f>D37-C37</f>
+      <c r="D37" s="3">
+        <f>D38-C38</f>
         <v>-5</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="4">
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="2:8">
-      <c r="B37" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="93">
-        <v>28</v>
-      </c>
-      <c r="D37" s="93">
-        <v>23</v>
-      </c>
-      <c r="E37" s="93">
-        <f>D37+$D$36</f>
-        <v>18</v>
-      </c>
-      <c r="F37" s="94">
-        <f>E37+$D$36</f>
-        <v>13</v>
-      </c>
-      <c r="G37" s="95"/>
-      <c r="H37" s="35"/>
-    </row>
-    <row r="38" customHeight="1" spans="2:10">
-      <c r="B38" s="86"/>
-      <c r="C38" s="24">
-        <f>ROUNDDOWN(C37*$F$36,1)</f>
-        <v>21</v>
-      </c>
-      <c r="D38" s="24">
-        <f>ROUNDDOWN(D37*$F$36,1)</f>
-        <v>17.2</v>
-      </c>
-      <c r="E38" s="24">
-        <f>ROUNDDOWN(E37*$F$36,1)</f>
-        <v>13.5</v>
-      </c>
-      <c r="F38" s="25">
-        <f>ROUNDDOWN(F37*$F$36,1)</f>
-        <v>9.7</v>
-      </c>
-      <c r="H38" s="96" t="str">
-        <f>CONCATENATE(J38," ",F38)</f>
-        <v>21 17.2 13.5 9.7</v>
-      </c>
-      <c r="J38" s="35" t="str">
-        <f>CONCATENATE(C38," ",D38," ",E38)</f>
-        <v>21 17.2 13.5</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:6">
-      <c r="B39" s="86"/>
-      <c r="C39" s="35" t="s">
+    <row r="38" customHeight="1" spans="2:8">
+      <c r="B38" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="96">
+        <v>90</v>
+      </c>
+      <c r="D38" s="96">
+        <v>85</v>
+      </c>
+      <c r="E38" s="96">
+        <f>D38+$D$37</f>
+        <v>80</v>
+      </c>
+      <c r="F38" s="97">
+        <f>E38+$D$37</f>
+        <v>75</v>
+      </c>
+      <c r="G38" s="98"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:10">
+      <c r="B39" s="89"/>
+      <c r="C39" s="24">
+        <f>ROUNDDOWN(C38*$F$37,1)</f>
+        <v>67.5</v>
+      </c>
+      <c r="D39" s="24">
+        <f>ROUNDDOWN(D38*$F$37,1)</f>
+        <v>63.7</v>
+      </c>
+      <c r="E39" s="24">
+        <f>ROUNDDOWN(E38*$F$37,1)</f>
+        <v>60</v>
+      </c>
+      <c r="F39" s="25">
+        <f>ROUNDDOWN(F38*$F$37,1)</f>
+        <v>56.2</v>
+      </c>
+      <c r="H39" s="99" t="str">
+        <f>CONCATENATE(J39," ",F39)</f>
+        <v>67.5 63.7 60 56.2</v>
+      </c>
+      <c r="J39" s="35" t="str">
+        <f>CONCATENATE(C39," ",D39," ",E39)</f>
+        <v>67.5 63.7 60</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:6">
+      <c r="B40" s="89"/>
+      <c r="C40" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="35">
-        <f>D40-C40</f>
-        <v>5</v>
-      </c>
-      <c r="E39" s="87" t="s">
+      <c r="D40" s="35">
+        <f>D41-C41</f>
+        <v>125</v>
+      </c>
+      <c r="E40" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="97">
+      <c r="F40" s="100">
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:9">
-      <c r="B40" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="60">
-        <v>115</v>
-      </c>
-      <c r="D40" s="60">
-        <v>120</v>
-      </c>
-      <c r="E40" s="60">
-        <f>D40+$D$39</f>
+    <row r="41" customHeight="1" spans="2:9">
+      <c r="B41" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60">
         <v>125</v>
       </c>
-      <c r="F40" s="98">
-        <f>E40+$D$39</f>
-        <v>130</v>
-      </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" customHeight="1" spans="2:10">
-      <c r="B41" s="99"/>
-      <c r="C41" s="100">
-        <f>ROUNDDOWN(C40*$F$39,0)</f>
-        <v>86</v>
-      </c>
-      <c r="D41" s="100">
-        <f>ROUNDDOWN(D40*$F$39,0)</f>
-        <v>90</v>
-      </c>
-      <c r="E41" s="100">
-        <f>ROUNDDOWN(E40*$F$39,0)</f>
+      <c r="E41" s="60">
+        <f>D41+$D$40</f>
+        <v>250</v>
+      </c>
+      <c r="F41" s="101">
+        <f>E41+$D$40</f>
+        <v>375</v>
+      </c>
+      <c r="H41" s="64"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" customHeight="1" spans="2:10">
+      <c r="B42" s="102"/>
+      <c r="C42" s="103">
+        <f>ROUNDDOWN(C41*$F$40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="103">
+        <f>ROUNDDOWN(D41*$F$40,0)</f>
         <v>93</v>
       </c>
-      <c r="F41" s="101">
-        <f>ROUNDDOWN(F40*$F$39,0)</f>
-        <v>97</v>
-      </c>
-      <c r="H41" s="64" t="str">
-        <f>CONCATENATE(J41," ",F41)</f>
-        <v>86 90 93 97</v>
-      </c>
-      <c r="J41" s="35" t="str">
-        <f>CONCATENATE(C41," ",D41," ",E41)</f>
-        <v>86 90 93</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:7">
-      <c r="B43" s="83"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="3" t="s">
+      <c r="E42" s="103">
+        <f>ROUNDDOWN(E41*$F$40,0)</f>
+        <v>187</v>
+      </c>
+      <c r="F42" s="104">
+        <f>ROUNDDOWN(F41*$F$40,0)</f>
+        <v>281</v>
+      </c>
+      <c r="H42" s="64" t="str">
+        <f>CONCATENATE(J42," ",F42)</f>
+        <v>0 93 187 281</v>
+      </c>
+      <c r="J42" s="35" t="str">
+        <f>CONCATENATE(C42," ",D42," ",E42)</f>
+        <v>0 93 187</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:7">
+      <c r="B44" s="83"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="35" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="103">
-        <v>500</v>
-      </c>
-      <c r="D44" s="37">
+    <row r="45" customHeight="1" spans="2:7">
+      <c r="B45" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="106">
+        <v>150</v>
+      </c>
+      <c r="D45" s="37">
         <v>1.25</v>
-      </c>
-      <c r="E44" s="38">
-        <v>0</v>
-      </c>
-      <c r="F44" s="104">
-        <f>C44*D44+E44</f>
-        <v>625</v>
-      </c>
-      <c r="G44" s="105">
-        <f>F44-C44</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="107">
-        <v>0.2</v>
-      </c>
-      <c r="D45" s="37">
-        <v>0.75</v>
       </c>
       <c r="E45" s="38">
         <v>0</v>
       </c>
-      <c r="F45" s="108">
+      <c r="F45" s="107">
         <f>C45*D45+E45</f>
-        <v>0.15</v>
-      </c>
-      <c r="G45" s="35">
+        <v>187.5</v>
+      </c>
+      <c r="G45" s="108">
         <f>F45-C45</f>
-        <v>-0.05</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="24">
-        <v>18</v>
+      <c r="B46" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="110">
+        <v>0.75</v>
       </c>
       <c r="D46" s="37">
         <v>0.75</v>
@@ -2749,21 +2761,21 @@
       <c r="E46" s="38">
         <v>0</v>
       </c>
-      <c r="F46" s="94">
-        <f>ROUNDDOWN(C46*D46+E46,1)</f>
-        <v>13.5</v>
-      </c>
-      <c r="G46" s="35">
-        <f>F46-C37</f>
-        <v>-14.5</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:8">
-      <c r="B47" s="59" t="s">
+      <c r="F46" s="111">
+        <f>C46*D46+E46</f>
+        <v>0.5625</v>
+      </c>
+      <c r="G46" s="44">
+        <f>F46-C46</f>
+        <v>-0.1875</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:7">
+      <c r="B47" s="95" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="24">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D47" s="37">
         <v>0.75</v>
@@ -2771,37 +2783,37 @@
       <c r="E47" s="38">
         <v>0</v>
       </c>
-      <c r="F47" s="98">
-        <f>ROUNDDOWN(C47*D47+E47,0)</f>
-        <v>75</v>
+      <c r="F47" s="97">
+        <f>ROUNDDOWN(C47*D47+E47,1)</f>
+        <v>22.5</v>
       </c>
       <c r="G47" s="35">
-        <f>F47-C40</f>
-        <v>-40</v>
-      </c>
-      <c r="H47" s="109"/>
-    </row>
-    <row r="48" customHeight="1" spans="2:7">
-      <c r="B48" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="36">
-        <v>2</v>
+        <f>F47-C38</f>
+        <v>-67.5</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:8">
+      <c r="B48" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="24">
+        <v>50</v>
       </c>
       <c r="D48" s="37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E48" s="38">
-        <v>1</v>
-      </c>
-      <c r="F48" s="84">
-        <f>C48*D48+E48</f>
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F48" s="101">
+        <f>ROUNDDOWN(C48*D48+E48,0)</f>
+        <v>37</v>
       </c>
       <c r="G48" s="35">
-        <f>F48-C48</f>
-        <v>1</v>
-      </c>
+        <f>F48-C41</f>
+        <v>37</v>
+      </c>
+      <c r="H48" s="112"/>
     </row>
     <row r="49" customHeight="1" spans="2:7">
       <c r="B49" s="23" t="s">
@@ -2826,33 +2838,33 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:7">
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="54">
-        <v>900</v>
+      <c r="C50" s="36">
+        <v>2</v>
       </c>
       <c r="D50" s="37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E50" s="38">
-        <v>0</v>
-      </c>
-      <c r="F50" s="110">
-        <f t="shared" ref="F50:F57" si="4">C50*D50+E50</f>
-        <v>1125</v>
+        <v>1</v>
+      </c>
+      <c r="F50" s="84">
+        <f>C50*D50+E50</f>
+        <v>3</v>
       </c>
       <c r="G50" s="35">
-        <f t="shared" ref="G50:G57" si="5">F50-C50</f>
-        <v>225</v>
+        <f>F50-C50</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:7">
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="66">
-        <v>75</v>
+      <c r="C51" s="54">
+        <v>120</v>
       </c>
       <c r="D51" s="37">
         <v>1.25</v>
@@ -2860,21 +2872,21 @@
       <c r="E51" s="38">
         <v>0</v>
       </c>
-      <c r="F51" s="31">
-        <f t="shared" si="4"/>
-        <v>93.75</v>
+      <c r="F51" s="55">
+        <f t="shared" ref="F51:F58" si="5">C51*D51+E51</f>
+        <v>150</v>
       </c>
       <c r="G51" s="40">
-        <f t="shared" si="5"/>
-        <v>18.75</v>
+        <f t="shared" ref="G51:G58" si="6">F51-C51</f>
+        <v>30</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="111">
-        <v>23</v>
+      <c r="C52" s="66">
+        <v>125</v>
       </c>
       <c r="D52" s="37">
         <v>1.25</v>
@@ -2882,121 +2894,143 @@
       <c r="E52" s="38">
         <v>0</v>
       </c>
-      <c r="F52" s="112">
-        <f t="shared" si="4"/>
-        <v>28.75</v>
-      </c>
-      <c r="G52" s="35">
+      <c r="F52" s="31">
         <f t="shared" si="5"/>
-        <v>5.75</v>
+        <v>156.25</v>
+      </c>
+      <c r="G52" s="40">
+        <f t="shared" si="6"/>
+        <v>31.25</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:7">
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="93">
-        <v>170</v>
+      <c r="C53" s="113">
+        <v>23</v>
       </c>
       <c r="D53" s="37">
         <v>1.25</v>
       </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="113">
-        <f t="shared" si="4"/>
-        <v>212.5</v>
+      <c r="E53" s="38">
+        <v>0</v>
+      </c>
+      <c r="F53" s="114">
+        <f t="shared" si="5"/>
+        <v>28.75</v>
       </c>
       <c r="G53" s="35">
-        <f t="shared" si="5"/>
-        <v>42.5</v>
+        <f t="shared" si="6"/>
+        <v>5.75</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:7">
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="114">
-        <v>2</v>
+      <c r="C54" s="96">
+        <v>325</v>
       </c>
       <c r="D54" s="37">
         <v>1.25</v>
       </c>
-      <c r="E54" s="38">
-        <v>0</v>
-      </c>
-      <c r="F54" s="98">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+      <c r="E54" s="38"/>
+      <c r="F54" s="115">
+        <f t="shared" si="5"/>
+        <v>406.25</v>
       </c>
       <c r="G54" s="35">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>81.25</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:7">
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="59" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="116">
+        <v>2.75</v>
+      </c>
+      <c r="D55" s="37">
         <v>1.25</v>
-      </c>
-      <c r="D55" s="37">
-        <v>0.75</v>
       </c>
       <c r="E55" s="38">
         <v>0</v>
       </c>
-      <c r="F55" s="117">
-        <f t="shared" si="4"/>
-        <v>0.9375</v>
-      </c>
-      <c r="G55" s="46">
+      <c r="F55" s="63">
         <f t="shared" si="5"/>
-        <v>-0.3125</v>
+        <v>3.4375</v>
+      </c>
+      <c r="G55" s="44">
+        <f t="shared" si="6"/>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:7">
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="42">
-        <v>400</v>
+      <c r="C56" s="118">
+        <v>30</v>
       </c>
       <c r="D56" s="37">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="E56" s="38">
         <v>0</v>
       </c>
-      <c r="F56" s="77">
-        <f t="shared" si="4"/>
+      <c r="F56" s="119">
+        <f t="shared" si="5"/>
+        <v>22.5</v>
+      </c>
+      <c r="G56" s="44">
+        <f t="shared" si="6"/>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:7">
+      <c r="B57" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="42">
+        <v>400</v>
+      </c>
+      <c r="D57" s="37">
+        <v>1.25</v>
+      </c>
+      <c r="E57" s="38">
+        <v>0</v>
+      </c>
+      <c r="F57" s="77">
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G57" s="35">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:7">
+      <c r="B58" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="79">
+        <v>0.75</v>
+      </c>
+      <c r="D58" s="80">
+        <v>1.25</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0</v>
+      </c>
+      <c r="F58" s="120">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:7">
-      <c r="B57" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="79">
-        <v>3.34</v>
-      </c>
-      <c r="D57" s="80">
-        <v>1.25</v>
-      </c>
-      <c r="E57" s="81">
-        <v>0</v>
-      </c>
-      <c r="F57" s="118">
-        <f t="shared" si="4"/>
-        <v>4.175</v>
-      </c>
-      <c r="G57" s="46">
-        <f t="shared" si="5"/>
-        <v>0.835</v>
+        <v>0.9375</v>
+      </c>
+      <c r="G58" s="46">
+        <f t="shared" si="6"/>
+        <v>0.1875</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +3043,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{212be5d5-0a9b-4795-a997-d28619f2ff5a}</x14:id>
+          <x14:id>{69948d18-7928-43f5-b257-1ae8b6d3156a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3021,7 +3055,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{174892df-adb7-4758-ad61-f8dbd3591a6c}</x14:id>
+          <x14:id>{e36500bd-bcea-4d40-a939-e02234476743}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3033,7 +3067,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{513ceda7-109a-47da-9dd7-2a3fb1e5fc65}</x14:id>
+          <x14:id>{577e7496-868c-4e2c-9ebd-9a17be4264ea}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3047,12 +3081,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1a8be358-4e5a-4062-82c0-83353b069a0f}</x14:id>
+          <x14:id>{005c683a-147d-4d8c-b34d-ebd3b7e4a52b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:G31">
+  <conditionalFormatting sqref="C31:F32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58bfa428-f40d-49c2-91c2-96b7e610c411}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:G32">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -3061,7 +3109,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{996d72f5-f7a9-4fd9-a5fa-3cdde9931bb8}</x14:id>
+          <x14:id>{48b07c04-4041-4c12-a435-efe171d8f782}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3073,21 +3121,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2314410-0a38-421a-ab5b-51a84bfae09f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:F31">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bf3e1fa9-fe31-4d84-9ad4-826c24a5654c}</x14:id>
+          <x14:id>{960c01ee-66ed-418b-9643-c42e32479a96}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3096,14 +3130,14 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F47" formula="1"/>
+    <ignoredError sqref="F48" formula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{212be5d5-0a9b-4795-a997-d28619f2ff5a}">
+          <x14:cfRule type="dataBar" id="{69948d18-7928-43f5-b257-1ae8b6d3156a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3111,7 +3145,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{174892df-adb7-4758-ad61-f8dbd3591a6c}">
+          <x14:cfRule type="dataBar" id="{e36500bd-bcea-4d40-a939-e02234476743}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3119,7 +3153,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{513ceda7-109a-47da-9dd7-2a3fb1e5fc65}">
+          <x14:cfRule type="dataBar" id="{577e7496-868c-4e2c-9ebd-9a17be4264ea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3130,7 +3164,7 @@
           <xm:sqref>C30:G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1a8be358-4e5a-4062-82c0-83353b069a0f}">
+          <x14:cfRule type="dataBar" id="{005c683a-147d-4d8c-b34d-ebd3b7e4a52b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3141,7 +3175,7 @@
           <xm:sqref>C30:F30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{996d72f5-f7a9-4fd9-a5fa-3cdde9931bb8}">
+          <x14:cfRule type="dataBar" id="{58bfa428-f40d-49c2-91c2-96b7e610c411}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3149,7 +3183,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a2314410-0a38-421a-ab5b-51a84bfae09f}">
+          <xm:sqref>C31:F32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{48b07c04-4041-4c12-a435-efe171d8f782}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3157,10 +3194,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C31:G31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bf3e1fa9-fe31-4d84-9ad4-826c24a5654c}">
+          <x14:cfRule type="dataBar" id="{960c01ee-66ed-418b-9643-c42e32479a96}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3168,7 +3202,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C31:F31</xm:sqref>
+          <xm:sqref>C31:G32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3194,19 +3228,19 @@
     <row r="1" ht="10" customHeight="1"/>
     <row r="2" customHeight="1" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:7">
@@ -3705,7 +3739,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abea4760-c9a9-405f-80b8-0d50c57bd7e2}</x14:id>
+          <x14:id>{811c6c9a-b7e0-4d9c-9d6b-34b9101d506d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3719,7 +3753,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c0cd58f6-3b69-4fa9-bcd6-64ce54a24136}</x14:id>
+          <x14:id>{2a95bbd5-37bf-44a0-89c0-2059bee71803}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3733,7 +3767,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{615cd1ed-5a6d-4f7a-85a2-199372e40340}</x14:id>
+          <x14:id>{89878544-a7a7-4b56-a301-235a72950774}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3747,7 +3781,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{222b34a3-ccef-4095-bdbb-997d0c938eec}</x14:id>
+          <x14:id>{0a836c1c-75ce-412d-90f2-6e4ecf1b9078}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3761,7 +3795,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e5ac284d-0815-43f0-8ce5-797e42840c13}</x14:id>
+          <x14:id>{1787adfc-4925-4a87-affd-56666db64a6b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3775,7 +3809,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d9709872-6a4e-40b7-954c-0bcb46e49aaf}</x14:id>
+          <x14:id>{745ba0b6-9691-497c-b874-dfbc99fcf223}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3789,7 +3823,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aa80e03d-5fd6-455f-8b09-280fd8781830}</x14:id>
+          <x14:id>{7a3b8f00-84b8-465f-a90e-5c42788fd072}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3803,7 +3837,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eb889fe5-7bca-4e01-aaef-10e89b9d66c5}</x14:id>
+          <x14:id>{48dbcc55-443f-4049-a2b3-579a6b824506}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3817,7 +3851,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93a363df-11c3-43a3-a5f2-b2cf671252f5}</x14:id>
+          <x14:id>{5b65d063-df4c-46e2-9f03-c01056ecee9c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3829,7 +3863,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abea4760-c9a9-405f-80b8-0d50c57bd7e2}">
+          <x14:cfRule type="dataBar" id="{811c6c9a-b7e0-4d9c-9d6b-34b9101d506d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3840,7 +3874,7 @@
           <xm:sqref>D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c0cd58f6-3b69-4fa9-bcd6-64ce54a24136}">
+          <x14:cfRule type="dataBar" id="{2a95bbd5-37bf-44a0-89c0-2059bee71803}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3851,7 +3885,7 @@
           <xm:sqref>D20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{615cd1ed-5a6d-4f7a-85a2-199372e40340}">
+          <x14:cfRule type="dataBar" id="{89878544-a7a7-4b56-a301-235a72950774}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3862,7 +3896,7 @@
           <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{222b34a3-ccef-4095-bdbb-997d0c938eec}">
+          <x14:cfRule type="dataBar" id="{0a836c1c-75ce-412d-90f2-6e4ecf1b9078}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3873,7 +3907,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e5ac284d-0815-43f0-8ce5-797e42840c13}">
+          <x14:cfRule type="dataBar" id="{1787adfc-4925-4a87-affd-56666db64a6b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3884,7 +3918,7 @@
           <xm:sqref>B3:B22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d9709872-6a4e-40b7-954c-0bcb46e49aaf}">
+          <x14:cfRule type="dataBar" id="{745ba0b6-9691-497c-b874-dfbc99fcf223}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3895,7 +3929,7 @@
           <xm:sqref>C3:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aa80e03d-5fd6-455f-8b09-280fd8781830}">
+          <x14:cfRule type="dataBar" id="{7a3b8f00-84b8-465f-a90e-5c42788fd072}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3906,7 +3940,7 @@
           <xm:sqref>D3:D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eb889fe5-7bca-4e01-aaef-10e89b9d66c5}">
+          <x14:cfRule type="dataBar" id="{48dbcc55-443f-4049-a2b3-579a6b824506}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3917,7 +3951,7 @@
           <xm:sqref>F3:F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93a363df-11c3-43a3-a5f2-b2cf671252f5}">
+          <x14:cfRule type="dataBar" id="{5b65d063-df4c-46e2-9f03-c01056ecee9c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/7.33e/calc2.xlsx
+++ b/7.33e/calc2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,8 +255,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[=1]g;General"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="[=1]g;General"/>
     <numFmt numFmtId="178" formatCode="[=0]g;General"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
@@ -1154,19 +1154,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1175,16 +1175,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,7 +1211,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,7 +1220,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,7 +1229,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,7 +1247,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,7 +1280,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,7 +1304,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1373,10 +1373,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,10 +1385,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,16 +1400,16 @@
     <xf numFmtId="180" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,16 +1427,16 @@
     <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1812,8 +1812,8 @@
   <sheetPr/>
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3043,7 +3043,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69948d18-7928-43f5-b257-1ae8b6d3156a}</x14:id>
+          <x14:id>{31471744-8361-45e4-8b2c-cac778b0336c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3055,7 +3055,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e36500bd-bcea-4d40-a939-e02234476743}</x14:id>
+          <x14:id>{2ad68e9d-631e-4ab8-b84d-63eeac37d1b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3067,7 +3067,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{577e7496-868c-4e2c-9ebd-9a17be4264ea}</x14:id>
+          <x14:id>{17bfcd6d-eba4-4284-94b1-9bffee9f2fbe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3081,7 +3081,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{005c683a-147d-4d8c-b34d-ebd3b7e4a52b}</x14:id>
+          <x14:id>{45d74f60-c296-4bdc-806e-06f21e676ccf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3095,7 +3095,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58bfa428-f40d-49c2-91c2-96b7e610c411}</x14:id>
+          <x14:id>{fa758510-0cb9-4d7b-85e3-7f4dce48df4c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3109,7 +3109,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48b07c04-4041-4c12-a435-efe171d8f782}</x14:id>
+          <x14:id>{45db3a0a-275d-4447-b436-90ef7e26c6a5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3121,7 +3121,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{960c01ee-66ed-418b-9643-c42e32479a96}</x14:id>
+          <x14:id>{d0fb39db-03e6-4625-aa3f-62837045659f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3137,7 +3137,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{69948d18-7928-43f5-b257-1ae8b6d3156a}">
+          <x14:cfRule type="dataBar" id="{31471744-8361-45e4-8b2c-cac778b0336c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3145,7 +3145,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e36500bd-bcea-4d40-a939-e02234476743}">
+          <x14:cfRule type="dataBar" id="{2ad68e9d-631e-4ab8-b84d-63eeac37d1b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3153,7 +3153,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{577e7496-868c-4e2c-9ebd-9a17be4264ea}">
+          <x14:cfRule type="dataBar" id="{17bfcd6d-eba4-4284-94b1-9bffee9f2fbe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3164,7 +3164,7 @@
           <xm:sqref>C30:G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{005c683a-147d-4d8c-b34d-ebd3b7e4a52b}">
+          <x14:cfRule type="dataBar" id="{45d74f60-c296-4bdc-806e-06f21e676ccf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3175,7 +3175,7 @@
           <xm:sqref>C30:F30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58bfa428-f40d-49c2-91c2-96b7e610c411}">
+          <x14:cfRule type="dataBar" id="{fa758510-0cb9-4d7b-85e3-7f4dce48df4c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3186,7 +3186,7 @@
           <xm:sqref>C31:F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48b07c04-4041-4c12-a435-efe171d8f782}">
+          <x14:cfRule type="dataBar" id="{45db3a0a-275d-4447-b436-90ef7e26c6a5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3194,7 +3194,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{960c01ee-66ed-418b-9643-c42e32479a96}">
+          <x14:cfRule type="dataBar" id="{d0fb39db-03e6-4625-aa3f-62837045659f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3739,7 +3739,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{811c6c9a-b7e0-4d9c-9d6b-34b9101d506d}</x14:id>
+          <x14:id>{93ba7b58-6304-489d-ad13-6352f166fef3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3753,7 +3753,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a95bbd5-37bf-44a0-89c0-2059bee71803}</x14:id>
+          <x14:id>{389c6551-9a12-49e1-a08d-f23476cbfd79}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3767,7 +3767,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89878544-a7a7-4b56-a301-235a72950774}</x14:id>
+          <x14:id>{88e8e3c0-de15-4f68-b8eb-2ed5784b2e92}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3781,7 +3781,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a836c1c-75ce-412d-90f2-6e4ecf1b9078}</x14:id>
+          <x14:id>{017edc23-f57a-4239-92a6-8bab6cb7641d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3795,7 +3795,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1787adfc-4925-4a87-affd-56666db64a6b}</x14:id>
+          <x14:id>{95c4f417-b505-40f9-858f-c5f80c009b71}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3809,7 +3809,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{745ba0b6-9691-497c-b874-dfbc99fcf223}</x14:id>
+          <x14:id>{1c5f137f-b564-4357-a1d5-f278e0389071}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3823,7 +3823,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7a3b8f00-84b8-465f-a90e-5c42788fd072}</x14:id>
+          <x14:id>{a579d0d7-a47c-4a04-ac70-ca51cd803e1a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3837,7 +3837,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48dbcc55-443f-4049-a2b3-579a6b824506}</x14:id>
+          <x14:id>{422f0ee0-aecc-407c-bfa5-b558b8f307c4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3851,7 +3851,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5b65d063-df4c-46e2-9f03-c01056ecee9c}</x14:id>
+          <x14:id>{e4bca10d-074b-450c-aecf-fa5c936e1261}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3863,7 +3863,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{811c6c9a-b7e0-4d9c-9d6b-34b9101d506d}">
+          <x14:cfRule type="dataBar" id="{93ba7b58-6304-489d-ad13-6352f166fef3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3874,7 +3874,7 @@
           <xm:sqref>D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2a95bbd5-37bf-44a0-89c0-2059bee71803}">
+          <x14:cfRule type="dataBar" id="{389c6551-9a12-49e1-a08d-f23476cbfd79}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3885,7 +3885,7 @@
           <xm:sqref>D20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{89878544-a7a7-4b56-a301-235a72950774}">
+          <x14:cfRule type="dataBar" id="{88e8e3c0-de15-4f68-b8eb-2ed5784b2e92}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3896,7 +3896,7 @@
           <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0a836c1c-75ce-412d-90f2-6e4ecf1b9078}">
+          <x14:cfRule type="dataBar" id="{017edc23-f57a-4239-92a6-8bab6cb7641d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3907,7 +3907,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1787adfc-4925-4a87-affd-56666db64a6b}">
+          <x14:cfRule type="dataBar" id="{95c4f417-b505-40f9-858f-c5f80c009b71}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3918,7 +3918,7 @@
           <xm:sqref>B3:B22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{745ba0b6-9691-497c-b874-dfbc99fcf223}">
+          <x14:cfRule type="dataBar" id="{1c5f137f-b564-4357-a1d5-f278e0389071}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3929,7 +3929,7 @@
           <xm:sqref>C3:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7a3b8f00-84b8-465f-a90e-5c42788fd072}">
+          <x14:cfRule type="dataBar" id="{a579d0d7-a47c-4a04-ac70-ca51cd803e1a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3940,7 +3940,7 @@
           <xm:sqref>D3:D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48dbcc55-443f-4049-a2b3-579a6b824506}">
+          <x14:cfRule type="dataBar" id="{422f0ee0-aecc-407c-bfa5-b558b8f307c4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3951,7 +3951,7 @@
           <xm:sqref>F3:F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5b65d063-df4c-46e2-9f03-c01056ecee9c}">
+          <x14:cfRule type="dataBar" id="{e4bca10d-074b-450c-aecf-fa5c936e1261}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
